--- a/Needs Analysis Survey/Needs Analysis Survey Results 22-Jul-2017.xlsx
+++ b/Needs Analysis Survey/Needs Analysis Survey Results 22-Jul-2017.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Grad-School/Needs Analysis Survey/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="460" windowWidth="26360" windowHeight="15140"/>
+    <workbookView xWindow="1845" yWindow="465" windowWidth="26355" windowHeight="15135"/>
   </bookViews>
   <sheets>
     <sheet name="EndoscopicEarSurgery_DATA_09-Ma" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$E$1:$E$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$A$1:$O$46</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>record_id</t>
   </si>
@@ -152,21 +147,6 @@
     <t>suction elevators to control amount of suction</t>
   </si>
   <si>
-    <t>angled shaft</t>
-  </si>
-  <si>
-    <t>bipolar with suction</t>
-  </si>
-  <si>
-    <t>disposable curved and angled suckers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coagulations </t>
-  </si>
-  <si>
-    <t>single handed drilling - irrigation and suction at the same time</t>
-  </si>
-  <si>
     <t xml:space="preserve">   </t>
   </si>
   <si>
@@ -181,12 +161,46 @@
   <si>
     <t>Instruments with working angles that can be adjusted.</t>
   </si>
+  <si>
+    <t>suctions with differet angles to facilitate suction of cholesteatomatous matrix at differet sites and a tool for dissection and suction at the same time</t>
+  </si>
+  <si>
+    <t>Overall, I feel that the most frustrating aspect is not being able to reach structures and disease that you can see with the endoscope with currently available instruments.</t>
+  </si>
+  <si>
+    <t>At this time in my level of experience, what I would need the most is to have improved curved suctions that are able to reach and aspirate cholesteatoma matrix from difficult areas such as attic and sinus tympani.  The Storz curved suctions I have in my set are too flimsy, too thin and too long.  A device to suction smoke during laser surgery mounted on the laser tip or separate would be very useful.  In regards of cutting bone, I have found the piezoelectric drill quite useful. In regards of bleeding control, I feel that with experience and optimal injection I can manage with intermittently suctioning the field and placing cotton balls.  In regards of graft positioning, I manage well with traditional middle ear instruments.</t>
+  </si>
+  <si>
+    <t>A drill that can remove bone without obscuring vision.    An instrument that can remove vascular lesions without causing bleeding!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The flexible joint made by stors to fix endoscope allowing biannual work is useful. However it is thick, I think it need to be thinned out.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">=- cleansing lens continuously </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - feasible holder*
+*assuming endoscope holder</t>
+    </r>
+  </si>
+  <si>
+    <t>=- instruments bended and longer to reach easily supratubal recess or deep sinus tympani   - curved ronded Knife for better incision of the skin in the first step of any Middle Ear Surgery</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,7 +726,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -727,11 +741,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -793,17 +814,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -826,73 +837,69 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$41:$M$41</c:f>
+                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$53:$M$53</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>5.78397108745613</c:v>
+                    <c:v>5.304099459322023</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.187454862539589</c:v>
+                    <c:v>4.2221757041562942</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.950310277902522</c:v>
+                    <c:v>4.6742264623272476</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.497403592476473</c:v>
+                    <c:v>6.298468629016666</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.356983915463863</c:v>
+                    <c:v>5.8303140553036297</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.115843623460732</c:v>
+                    <c:v>4.26149932443907</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$41:$M$41</c:f>
+                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$53:$M$53</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>5.78397108745613</c:v>
+                    <c:v>5.304099459322023</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.187454862539589</c:v>
+                    <c:v>4.2221757041562942</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.950310277902522</c:v>
+                    <c:v>4.6742264623272476</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.497403592476473</c:v>
+                    <c:v>6.298468629016666</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.356983915463863</c:v>
+                    <c:v>5.8303140553036297</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.115843623460732</c:v>
+                    <c:v>4.26149932443907</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -926,50 +933,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$39:$M$39</c:f>
+              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$51:$M$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>64.06896551724138</c:v>
+                  <c:v>65.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.09375</c:v>
+                  <c:v>82.75555555555556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.54838709677419</c:v>
+                  <c:v>66.511111111111106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.15151515151515</c:v>
+                  <c:v>60.711111111111109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.71875</c:v>
+                  <c:v>58.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.06060606060606</c:v>
+                  <c:v>78.488888888888894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2133436000"/>
-        <c:axId val="2093744096"/>
+        <c:dLbls/>
+        <c:axId val="61094144"/>
+        <c:axId val="61219200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2133436000"/>
+        <c:axId val="61094144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -992,25 +990,21 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093744096"/>
+        <c:crossAx val="61219200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093744096"/>
+        <c:axId val="61219200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1034,24 +1028,21 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133436000"/>
+        <c:crossAx val="61094144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1059,17 +1050,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1098,7 +1079,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1106,34 +1086,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1146,7 +1104,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$R$3:$R$6</c:f>
@@ -1174,40 +1131,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2090726704"/>
-        <c:axId val="2090740400"/>
+        <c:axId val="67427328"/>
+        <c:axId val="67462272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2090726704"/>
+        <c:axId val="67427328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1241,7 +1190,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1249,30 +1197,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1307,19 +1234,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090740400"/>
+        <c:crossAx val="67462272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090740400"/>
+        <c:axId val="67462272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1362,7 +1287,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1370,30 +1294,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1422,7 +1325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090726704"/>
+        <c:crossAx val="67427328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1436,7 +1339,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1465,7 +1367,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1473,17 +1375,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1516,7 +1408,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1524,34 +1416,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1564,7 +1434,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$V$3:$V$4</c:f>
@@ -1586,34 +1455,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2135087760"/>
-        <c:axId val="-2133369248"/>
+        <c:axId val="69834240"/>
+        <c:axId val="69868160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2135087760"/>
+        <c:axId val="69834240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1646,7 +1507,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1654,30 +1515,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1712,19 +1552,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133369248"/>
+        <c:crossAx val="69868160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133369248"/>
+        <c:axId val="69868160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1771,7 +1609,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1779,30 +1617,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1831,7 +1648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135087760"/>
+        <c:crossAx val="69834240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1845,7 +1662,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1874,7 +1690,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2972,13 +2788,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>492124</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>92074</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3002,13 +2818,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3032,13 +2848,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>3302000</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3347,26 +3163,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="61" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="120">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3413,7 +3229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3424,14 +3240,14 @@
         <v>2</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E35" si="0">VLOOKUP(D2,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" ref="E2:E46" si="0">VLOOKUP(D2,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G35" si="1">VLOOKUP(F2, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" ref="G2:G46" si="1">VLOOKUP(F2, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H2">
@@ -3474,7 +3290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3536,7 +3352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3557,12 +3373,24 @@
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
       <c r="K4">
         <v>7</v>
       </c>
       <c r="L4">
         <v>7</v>
       </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4">
         <v>2</v>
@@ -3586,7 +3414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3639,7 +3467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3692,7 +3520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>10</v>
       </c>
@@ -3736,7 +3564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="30">
       <c r="A8">
         <v>12</v>
       </c>
@@ -3782,7 +3610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="45">
       <c r="A9">
         <v>13</v>
       </c>
@@ -3828,7 +3656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3872,7 +3700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3902,6 +3730,9 @@
       <c r="J11">
         <v>69</v>
       </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
       <c r="L11">
         <v>57</v>
       </c>
@@ -3918,7 +3749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3965,7 +3796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="30">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4011,7 +3842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>15</v>
       </c>
@@ -4032,9 +3863,15 @@
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
       <c r="I14">
         <v>85</v>
       </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
       <c r="K14">
         <v>35</v>
       </c>
@@ -4049,7 +3886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>9</v>
       </c>
@@ -4093,7 +3930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="30">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4139,7 +3976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="60">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4185,51 +4022,51 @@
         <v>2</v>
       </c>
       <c r="U17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+    <row r="18" spans="1:21" s="8" customFormat="1">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="D18" s="9">
-        <v>2</v>
-      </c>
-      <c r="E18" s="9" t="str">
+      <c r="D18" s="8">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Up to 50%</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>1</v>
       </c>
-      <c r="G18" s="9" t="str">
+      <c r="G18" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>95</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>89</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>50</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>95</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>50</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <v>50</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="9">
+      <c r="N18" s="9"/>
+      <c r="O18" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4265,11 +4102,12 @@
       <c r="M19">
         <v>50</v>
       </c>
+      <c r="N19" s="3"/>
       <c r="O19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4305,11 +4143,12 @@
       <c r="M20">
         <v>51</v>
       </c>
+      <c r="N20" s="3"/>
       <c r="O20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4345,7 +4184,7 @@
       <c r="M21">
         <v>100</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="S21" t="s">
@@ -4355,7 +4194,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4391,6 +4230,7 @@
       <c r="M22">
         <v>81</v>
       </c>
+      <c r="N22" s="3"/>
       <c r="S22" t="s">
         <v>37</v>
       </c>
@@ -4398,7 +4238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="7" customFormat="1">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -4434,12 +4274,12 @@
       <c r="M23" s="7">
         <v>91</v>
       </c>
-      <c r="N23" s="8"/>
+      <c r="N23" s="10"/>
       <c r="T23" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4475,11 +4315,11 @@
       <c r="M24">
         <v>65</v>
       </c>
-      <c r="N24" t="s">
-        <v>47</v>
+      <c r="N24" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4497,6 +4337,9 @@
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
       <c r="I25">
         <v>94</v>
       </c>
@@ -4512,9 +4355,9 @@
       <c r="M25">
         <v>93</v>
       </c>
-      <c r="N25"/>
+      <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4550,9 +4393,9 @@
       <c r="M26">
         <v>67</v>
       </c>
-      <c r="N26"/>
+      <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4588,9 +4431,9 @@
       <c r="M27">
         <v>100</v>
       </c>
-      <c r="N27"/>
+      <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4608,20 +4451,29 @@
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="I28">
+        <v>50</v>
+      </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28">
         <v>100</v>
       </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
       <c r="M28">
         <v>100</v>
       </c>
-      <c r="N28" t="s">
-        <v>48</v>
+      <c r="N28" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4657,9 +4509,9 @@
       <c r="M29">
         <v>98</v>
       </c>
-      <c r="N29"/>
+      <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="30">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4695,12 +4547,11 @@
       <c r="M30">
         <v>71</v>
       </c>
-      <c r="N30" t="e">
-        <f>- cleansing lens continuously  - feasible holder</f>
-        <v>#NAME?</v>
+      <c r="N30" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4736,11 +4587,11 @@
       <c r="M31">
         <v>67</v>
       </c>
-      <c r="N31" t="s">
-        <v>49</v>
+      <c r="N31" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4776,9 +4627,9 @@
       <c r="M32">
         <v>61</v>
       </c>
-      <c r="N32"/>
+      <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4814,12 +4665,11 @@
       <c r="M33">
         <v>75</v>
       </c>
-      <c r="N33" t="e">
-        <f>- instruments bended and longer to reach easily supratubal recess or deep sinus tympani   - curved ronded Knife for better incision of the skin in the first step of any Middle Ear Surgery</f>
-        <v>#NAME?</v>
+      <c r="N33" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4837,6 +4687,9 @@
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
+      <c r="H34">
+        <v>50</v>
+      </c>
       <c r="I34">
         <v>64</v>
       </c>
@@ -4852,9 +4705,9 @@
       <c r="M34">
         <v>64</v>
       </c>
-      <c r="N34"/>
+      <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4878,129 +4731,615 @@
       <c r="I35">
         <v>92</v>
       </c>
+      <c r="J35">
+        <v>50</v>
+      </c>
       <c r="K35">
         <v>90</v>
       </c>
+      <c r="L35">
+        <v>50</v>
+      </c>
       <c r="M35">
         <v>90</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1">
+        <v>42938.693379629629</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>More than 90%</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H36">
+        <v>98</v>
+      </c>
+      <c r="I36">
+        <v>99</v>
+      </c>
+      <c r="J36">
+        <v>85</v>
+      </c>
+      <c r="K36">
+        <v>77</v>
+      </c>
+      <c r="L36">
+        <v>99</v>
+      </c>
+      <c r="M36">
+        <v>53</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
+        <v>42938.750347222223</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>50%-90%</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H37">
+        <v>70</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>68</v>
+      </c>
+      <c r="L37">
+        <v>68</v>
+      </c>
+      <c r="M37">
+        <v>100</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1">
+        <v>42938.771273148152</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>50%-90%</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="J38">
+        <v>76</v>
+      </c>
+      <c r="K38">
+        <v>78</v>
+      </c>
+      <c r="L38">
+        <v>79</v>
+      </c>
+      <c r="M38">
+        <v>78</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1">
+        <v>42938.773194444446</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>50%-90%</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="H39">
         <v>50</v>
       </c>
+      <c r="I39">
+        <v>50</v>
+      </c>
+      <c r="J39">
+        <v>89</v>
+      </c>
+      <c r="K39">
+        <v>96</v>
+      </c>
+      <c r="L39">
+        <v>50</v>
+      </c>
+      <c r="M39">
+        <v>98</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+    <row r="40" spans="1:15" ht="45">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1">
+        <v>42939.305138888885</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>50%-90%</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>49</v>
+      </c>
+      <c r="L40">
+        <v>51</v>
+      </c>
+      <c r="M40">
+        <v>100</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="180">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>42939.346828703703</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>50%-90%</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H41">
+        <v>62</v>
+      </c>
+      <c r="I41">
+        <v>91</v>
+      </c>
+      <c r="J41">
+        <v>61</v>
+      </c>
+      <c r="K41">
+        <v>92</v>
+      </c>
+      <c r="L41">
+        <v>50</v>
+      </c>
+      <c r="M41">
+        <v>96</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1">
+        <v>42939.388148148151</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Up to 50%</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="H42">
+        <v>72</v>
+      </c>
+      <c r="I42">
+        <v>96</v>
+      </c>
+      <c r="J42">
+        <v>50</v>
+      </c>
+      <c r="K42">
+        <v>51</v>
+      </c>
+      <c r="L42">
+        <v>53</v>
+      </c>
+      <c r="M42">
+        <v>100</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1">
+        <v>42939.389074074075</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>50%-90%</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H43">
+        <v>71</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+      <c r="J43">
+        <v>73</v>
+      </c>
+      <c r="K43">
+        <v>100</v>
+      </c>
+      <c r="L43">
+        <v>86</v>
+      </c>
+      <c r="M43">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3"/>
+      <c r="O43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="45">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1">
+        <v>42939.93891203704</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>50%-90%</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>86</v>
+      </c>
+      <c r="J44">
+        <v>76</v>
+      </c>
+      <c r="K44">
+        <v>69</v>
+      </c>
+      <c r="L44">
+        <v>60</v>
+      </c>
+      <c r="M44">
+        <v>67</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1">
+        <v>42940.15960648148</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H45">
+        <v>53</v>
+      </c>
+      <c r="I45">
+        <v>75</v>
+      </c>
+      <c r="J45">
+        <v>51</v>
+      </c>
+      <c r="K45">
+        <v>50</v>
+      </c>
+      <c r="L45">
+        <v>49</v>
+      </c>
+      <c r="M45">
+        <v>47</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1">
+        <v>42940.216608796298</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>50%-90%</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="H46">
+        <v>50</v>
+      </c>
+      <c r="I46">
+        <v>100</v>
+      </c>
+      <c r="J46">
+        <v>50</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>100</v>
+      </c>
+      <c r="M46">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3"/>
+      <c r="O46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="N47"/>
+    </row>
+    <row r="51" spans="1:14" s="5" customFormat="1">
+      <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="5">
-        <f>AVERAGE(H2:H35)</f>
-        <v>64.068965517241381</v>
-      </c>
-      <c r="I39" s="5">
-        <f t="shared" ref="I39:M39" si="2">AVERAGE(I2:I35)</f>
-        <v>82.09375</v>
-      </c>
-      <c r="J39" s="5">
+      <c r="H51" s="5">
+        <f>AVERAGE(H2:H50)</f>
+        <v>65.2</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" ref="I51:M51" si="2">AVERAGE(I2:I50)</f>
+        <v>82.75555555555556</v>
+      </c>
+      <c r="J51" s="5">
         <f t="shared" si="2"/>
-        <v>65.548387096774192</v>
-      </c>
-      <c r="K39" s="5">
+        <v>66.511111111111106</v>
+      </c>
+      <c r="K51" s="5">
         <f t="shared" si="2"/>
-        <v>59.151515151515149</v>
-      </c>
-      <c r="L39" s="5">
+        <v>60.711111111111109</v>
+      </c>
+      <c r="L51" s="5">
         <f t="shared" si="2"/>
-        <v>55.71875</v>
-      </c>
-      <c r="M39" s="5">
+        <v>58.4</v>
+      </c>
+      <c r="M51" s="5">
         <f t="shared" si="2"/>
-        <v>77.060606060606062</v>
-      </c>
-      <c r="N39" s="6"/>
-      <c r="T39" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>78.488888888888894</v>
+      </c>
+      <c r="N51" s="6"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
         <v>14</v>
       </c>
-      <c r="H40">
-        <f>STDEV(H2:H35)</f>
-        <v>27.12922914296729</v>
-      </c>
-      <c r="I40">
-        <f t="shared" ref="I40:M40" si="3">STDEV(I2:I35)</f>
-        <v>19.640904280804943</v>
-      </c>
-      <c r="J40">
+      <c r="H52">
+        <f>STDEV(H2:H50)</f>
+        <v>24.878431695674948</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ref="I52:M52" si="3">STDEV(I2:I50)</f>
+        <v>19.803759463518269</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="3"/>
-        <v>23.219013343489891</v>
-      </c>
-      <c r="K40">
+        <v>21.924065463883441</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="3"/>
-        <v>30.475524208085019</v>
-      </c>
-      <c r="L40">
+        <v>29.54243652029324</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="3"/>
-        <v>29.816897542035758</v>
-      </c>
-      <c r="M40">
+        <v>27.346596929716195</v>
+      </c>
+      <c r="M52">
         <f t="shared" si="3"/>
-        <v>19.305017796448986</v>
-      </c>
-      <c r="T40" t="s">
-        <v>42</v>
+        <v>19.988203591825915</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+    <row r="53" spans="1:14" s="5" customFormat="1">
+      <c r="A53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="5">
-        <f>H40/SQRT(22)</f>
-        <v>5.7839710874561296</v>
-      </c>
-      <c r="I41" s="5">
-        <f t="shared" ref="I41:M41" si="4">I40/SQRT(22)</f>
-        <v>4.1874548625395889</v>
-      </c>
-      <c r="J41" s="5">
+      <c r="H53" s="5">
+        <f>H52/SQRT(22)</f>
+        <v>5.304099459322023</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" ref="I53:M53" si="4">I52/SQRT(22)</f>
+        <v>4.2221757041562942</v>
+      </c>
+      <c r="J53" s="5">
         <f t="shared" si="4"/>
-        <v>4.9503102779025223</v>
-      </c>
-      <c r="K41" s="5">
+        <v>4.6742264623272476</v>
+      </c>
+      <c r="K53" s="5">
         <f t="shared" si="4"/>
-        <v>6.4974035924764735</v>
-      </c>
-      <c r="L41" s="5">
+        <v>6.298468629016666</v>
+      </c>
+      <c r="L53" s="5">
         <f t="shared" si="4"/>
-        <v>6.3569839154638634</v>
-      </c>
-      <c r="M41" s="5">
+        <v>5.8303140553036297</v>
+      </c>
+      <c r="M53" s="5">
         <f t="shared" si="4"/>
-        <v>4.1158436234607318</v>
-      </c>
-      <c r="N41" s="6"/>
-      <c r="T41" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="T42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="T43" t="s">
-        <v>45</v>
-      </c>
+        <v>4.26149932443907</v>
+      </c>
+      <c r="N53" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O46"/>
   <sortState ref="A2:O20">
     <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>